--- a/src/test/resources/Datadriven/Prueba.xlsx
+++ b/src/test/resources/Datadriven/Prueba.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
   <si>
     <t>API</t>
   </si>
@@ -43,18 +43,6 @@
     <t>Status Code</t>
   </si>
   <si>
-    <t>PATHSResponse</t>
-  </si>
-  <si>
-    <t>Respuestas Esperadas</t>
-  </si>
-  <si>
-    <t>Path File</t>
-  </si>
-  <si>
-    <t>Name Keys</t>
-  </si>
-  <si>
     <t>GET</t>
   </si>
   <si>
@@ -67,12 +55,6 @@
     <t>/get?lol=true</t>
   </si>
   <si>
-    <t>args.lol</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>Content-Type:application/json</t>
   </si>
   <si>
@@ -85,31 +67,16 @@
     <t>{ "something": "cool"}</t>
   </si>
   <si>
-    <t>json.something</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
     <t>DELETE</t>
   </si>
   <si>
     <t>/delete</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>http://httpbin.org/delete</t>
-  </si>
-  <si>
     <t>PUT</t>
   </si>
   <si>
     <t>/put</t>
-  </si>
-  <si>
-    <t>json.quotient</t>
   </si>
   <si>
     <r>
@@ -133,6 +100,42 @@
       </rPr>
       <t xml:space="preserve"> }</t>
     </r>
+  </si>
+  <si>
+    <t>ValoresEsperados</t>
+  </si>
+  <si>
+    <t>Params</t>
+  </si>
+  <si>
+    <t>json.something~cool</t>
+  </si>
+  <si>
+    <t>PARAMS</t>
+  </si>
+  <si>
+    <t>args.lol~true</t>
+  </si>
+  <si>
+    <t>url~http://httpbin.org/delete</t>
+  </si>
+  <si>
+    <t>json.quotient~224</t>
+  </si>
+  <si>
+    <t>PutBodyJson</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>PostBodyJson</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -485,15 +488,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,45 +522,39 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
       </c>
       <c r="H2">
         <v>200</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -568,15 +565,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,48 +599,42 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>200</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -653,15 +644,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:J2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,36 +678,30 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>200</v>
@@ -725,7 +710,7 @@
         <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -735,15 +720,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -769,48 +754,42 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>200</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2">
-        <v>224</v>
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Datadriven/Prueba.xlsx
+++ b/src/test/resources/Datadriven/Prueba.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A28AD0-85CF-439A-8870-92E3D4636E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Get" sheetId="1" r:id="rId1"/>
     <sheet name="Post" sheetId="2" r:id="rId2"/>
-    <sheet name="Delete" sheetId="3" r:id="rId3"/>
-    <sheet name="Put" sheetId="4" r:id="rId4"/>
+    <sheet name="GET2" sheetId="4" r:id="rId3"/>
+    <sheet name="Delete" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
   <si>
     <t>API</t>
   </si>
@@ -46,86 +47,27 @@
     <t>GET</t>
   </si>
   <si>
-    <t>Success</t>
-  </si>
-  <si>
     <t>BASE</t>
   </si>
   <si>
-    <t>/get?lol=true</t>
-  </si>
-  <si>
     <t>Content-Type:application/json</t>
   </si>
   <si>
-    <t>/post</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
-    <t>{ "something": "cool"}</t>
-  </si>
-  <si>
     <t>DELETE</t>
   </si>
   <si>
-    <t>/delete</t>
-  </si>
-  <si>
-    <t>PUT</t>
-  </si>
-  <si>
-    <t>/put</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">{ "quotient": </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF880000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"224"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> }</t>
-    </r>
-  </si>
-  <si>
     <t>ValoresEsperados</t>
   </si>
   <si>
     <t>Params</t>
   </si>
   <si>
-    <t>json.something~cool</t>
-  </si>
-  <si>
     <t>PARAMS</t>
   </si>
   <si>
-    <t>args.lol~true</t>
-  </si>
-  <si>
-    <t>url~http://httpbin.org/delete</t>
-  </si>
-  <si>
-    <t>json.quotient~224</t>
-  </si>
-  <si>
-    <t>PutBodyJson</t>
-  </si>
-  <si>
     <t>Delete</t>
   </si>
   <si>
@@ -136,13 +78,49 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Happy path</t>
+  </si>
+  <si>
+    <t>/employees</t>
+  </si>
+  <si>
+    <t>Happy Path</t>
+  </si>
+  <si>
+    <t>/create</t>
+  </si>
+  <si>
+    <t>/employee/1</t>
+  </si>
+  <si>
+    <t>/delete/2</t>
+  </si>
+  <si>
+    <t>{"name":"Gabriel","salary":"8000000","age":"23"}</t>
+  </si>
+  <si>
+    <t>data.name~Gabriel#data.salary~8000000</t>
+  </si>
+  <si>
+    <t>Get 2</t>
+  </si>
+  <si>
+    <t>data.id~1#data.employee_name~Tiger Nixon#data.employee_salary~320800#data.employee_age~61</t>
+  </si>
+  <si>
+    <t>message~Successfully! Record has been deleted</t>
+  </si>
+  <si>
+    <t>message~Successfully! All records has been fetched.#data[7].id~8#data[7].employee_name~Rhona Davidson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,12 +131,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF880000"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -196,6 +168,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -244,7 +219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,9 +252,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,6 +304,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -487,16 +496,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,39 +531,39 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
       </c>
       <c r="H2">
         <v>200</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -564,16 +573,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,42 +608,42 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H2">
         <v>200</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -643,16 +652,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,122 +687,120 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
+      <c r="G2" s="2"/>
       <c r="H2">
         <v>200</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2">
-        <v>200</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>200</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>